--- a/Team 10 schedule.xlsx
+++ b/Team 10 schedule.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="15" t="s">
         <v>9</v>
